--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-tub-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-tub-req-2:The performedDateTime element is required and must be provided. {performedDateTime.exists() and performedDateTime.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -760,7 +760,7 @@
     <t>specialization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-board-specialization|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-board-specialization|0.2.0}
 </t>
   </si>
   <si>
@@ -829,7 +829,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -1079,7 +1079,7 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
 </t>
   </si>
   <si>
@@ -1182,7 +1182,7 @@
     <t>Any recommendations or follow-up actions resulting from the tumor board.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-board-recommendations|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-board-recommendations|0.2.0</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="413">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Tumor Board Review</t>
+    <t>Tumor Board Review Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">A profile representing a tumor board review for a cancer patient.
-This profile extends the base FHIR `Procedure` resource since there is no equivalent mCODE profile that covers the use case. </t>
+This profile extends the base FHIR `Procedure` resource since there is no equivalent mCODE profile that covers the use case. 
+**Conformance:**
+Procedure resources representing a tumor board review in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Procedure|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Procedure</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -585,9 +587,6 @@
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
 This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>completed</t>
   </si>
   <si>
     <t>required</t>
@@ -760,7 +759,7 @@
     <t>specialization</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-board-specialization|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-tumor-board-specialization}
 </t>
   </si>
   <si>
@@ -829,7 +828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -895,6 +894,13 @@
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -905,6 +911,15 @@
   </si>
   <si>
     <t>OBR-7</t>
+  </si>
+  <si>
+    <t>Procedure.performed[x]:performedDateTime</t>
+  </si>
+  <si>
+    <t>performedDateTime</t>
+  </si>
+  <si>
+    <t>The date when the tumor board review was performed</t>
   </si>
   <si>
     <t>Procedure.recorder</t>
@@ -1079,11 +1094,11 @@
     <t>Procedure.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition|http://onconova.github.io/fhir/StructureDefinition/onconova-secondary-cancer-condition)
 </t>
   </si>
   <si>
-    <t>The justification that the procedure was performed</t>
+    <t>The condition(s) that motivated the tumor board</t>
   </si>
   <si>
     <t>The justification of why the procedure was performed.</t>
@@ -1182,7 +1197,7 @@
     <t>Any recommendations or follow-up actions resulting from the tumor board.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-board-recommendations|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tumor-board-recommendations</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=ACT, moodCode=INT].code</t>
@@ -1623,7 +1638,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN54"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1632,9 +1647,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.2890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.26171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.2890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.61328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="16.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1642,7 +1657,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.96484375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="146.90625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1657,7 +1672,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="62.6328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.25" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -3435,28 +3450,28 @@
         <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3489,13 +3504,13 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>20</v>
@@ -3503,14 +3518,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3529,16 +3544,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3564,14 +3579,14 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
       </c>
@@ -3588,7 +3603,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3603,10 +3618,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>20</v>
@@ -3617,10 +3632,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3643,13 +3658,13 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3661,29 +3676,29 @@
         <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
       </c>
@@ -3700,7 +3715,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3718,10 +3733,10 @@
         <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>20</v>
@@ -3729,14 +3744,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3755,17 +3770,17 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
@@ -3775,29 +3790,29 @@
         <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>215</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3814,7 +3829,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3829,24 +3844,24 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3869,13 +3884,13 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3926,7 +3941,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3944,7 +3959,7 @@
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -3955,10 +3970,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3987,7 +4002,7 @@
         <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>135</v>
@@ -4028,19 +4043,19 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AC21" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AC21" t="s" s="2">
+      <c r="AD21" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AD21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4058,7 +4073,7 @@
         <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>20</v>
@@ -4069,13 +4084,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="C22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>20</v>
@@ -4097,13 +4112,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4154,7 +4169,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4183,10 +4198,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4209,19 +4224,19 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4270,7 +4285,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4288,21 +4303,21 @@
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>245</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4325,19 +4340,19 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4386,7 +4401,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4404,25 +4419,25 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AM24" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN24" t="s" s="2">
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>253</v>
       </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4432,7 +4447,7 @@
         <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>20</v>
@@ -4441,13 +4456,13 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4498,7 +4513,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -4513,24 +4528,24 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4553,16 +4568,16 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4612,7 +4627,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4627,24 +4642,24 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>271</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4652,13 +4667,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>20</v>
@@ -4667,16 +4682,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4714,19 +4729,17 @@
         <v>20</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4741,26 +4754,28 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="D28" t="s" s="2">
         <v>20</v>
       </c>
@@ -4781,15 +4796,17 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -4838,7 +4855,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4853,16 +4870,16 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -4893,7 +4910,7 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>167</v>
@@ -4968,10 +4985,10 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>20</v>
@@ -4979,10 +4996,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4993,7 +5010,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
@@ -5005,7 +5022,7 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>167</v>
@@ -5062,13 +5079,13 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
@@ -5077,13 +5094,13 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>20</v>
@@ -5105,7 +5122,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>20</v>
@@ -5114,16 +5131,16 @@
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5174,25 +5191,25 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>20</v>
+        <v>294</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>225</v>
+        <v>295</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5203,21 +5220,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
@@ -5229,17 +5246,15 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5288,25 +5303,25 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -5317,14 +5332,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5337,26 +5352,24 @@
         <v>20</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O33" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -5404,7 +5417,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5422,7 +5435,7 @@
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -5433,33 +5446,33 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>300</v>
@@ -5467,9 +5480,11 @@
       <c r="M34" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O34" t="s" s="2">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -5494,13 +5509,13 @@
         <v>20</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>20</v>
@@ -5518,39 +5533,39 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>129</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>307</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5558,7 +5573,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -5573,17 +5588,17 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -5608,13 +5623,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>20</v>
+        <v>308</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5632,10 +5647,10 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
@@ -5647,24 +5662,24 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>315</v>
+        <v>20</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5672,7 +5687,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5684,20 +5699,20 @@
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -5746,10 +5761,10 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
@@ -5761,24 +5776,24 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>20</v>
+        <v>317</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>20</v>
+        <v>319</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>20</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5798,16 +5813,16 @@
         <v>20</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5860,7 +5875,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5881,7 +5896,7 @@
         <v>326</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>327</v>
+        <v>20</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>20</v>
@@ -5889,10 +5904,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5903,7 +5918,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
@@ -5915,7 +5930,7 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>167</v>
@@ -5923,10 +5938,10 @@
       <c r="M38" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -5950,13 +5965,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>331</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -5974,13 +5989,13 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
@@ -5989,13 +6004,13 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>332</v>
+        <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>20</v>
@@ -6003,10 +6018,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6029,16 +6044,16 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>190</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>167</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6064,13 +6079,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6088,7 +6103,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6103,24 +6118,24 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6128,13 +6143,13 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>20</v>
@@ -6143,16 +6158,16 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>191</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>167</v>
+        <v>342</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6178,13 +6193,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>344</v>
+        <v>20</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -6202,7 +6217,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6217,24 +6232,24 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>346</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6245,7 +6260,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -6257,7 +6272,7 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>167</v>
@@ -6266,7 +6281,7 @@
         <v>167</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6292,13 +6307,13 @@
         <v>20</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6316,13 +6331,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -6334,21 +6349,21 @@
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>20</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6359,7 +6374,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>20</v>
@@ -6368,19 +6383,19 @@
         <v>20</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>353</v>
+        <v>190</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>354</v>
+        <v>167</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>355</v>
+        <v>167</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6406,13 +6421,13 @@
         <v>20</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>20</v>
@@ -6430,13 +6445,13 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>20</v>
@@ -6448,7 +6463,7 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -6459,10 +6474,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6485,16 +6500,16 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>191</v>
+        <v>357</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>167</v>
+        <v>358</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>167</v>
+        <v>359</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6520,13 +6535,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>360</v>
+        <v>20</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>361</v>
+        <v>20</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -6544,7 +6559,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6562,7 +6577,7 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -6573,10 +6588,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6599,7 +6614,7 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>364</v>
+        <v>190</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>167</v>
@@ -6607,10 +6622,10 @@
       <c r="M44" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>365</v>
-      </c>
+      <c r="N44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -6634,13 +6649,13 @@
         <v>20</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>20</v>
+        <v>364</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>20</v>
+        <v>365</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>20</v>
@@ -6658,7 +6673,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6676,7 +6691,7 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -6685,12 +6700,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6704,7 +6719,7 @@
         <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>20</v>
@@ -6713,16 +6728,18 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>167</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
       </c>
@@ -6746,11 +6763,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y45" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>369</v>
+        <v>20</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -6768,7 +6787,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6786,21 +6805,21 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AM45" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>371</v>
-      </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6814,7 +6833,7 @@
         <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>20</v>
@@ -6823,13 +6842,13 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6856,13 +6875,11 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -6880,7 +6897,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6895,24 +6912,24 @@
         <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>377</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6935,13 +6952,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6992,7 +7009,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7007,16 +7024,16 @@
         <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7035,7 +7052,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>20</v>
@@ -7047,13 +7064,13 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>222</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>223</v>
+        <v>384</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7104,25 +7121,25 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>224</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>225</v>
+        <v>385</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7133,21 +7150,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -7159,17 +7176,15 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7218,25 +7233,25 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -7247,14 +7262,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>295</v>
+        <v>131</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7267,26 +7282,24 @@
         <v>20</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O50" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
       </c>
@@ -7334,7 +7347,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>298</v>
+        <v>230</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7352,7 +7365,7 @@
         <v>20</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>20</v>
@@ -7363,42 +7376,46 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>386</v>
+        <v>300</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
       </c>
@@ -7422,13 +7439,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>388</v>
+        <v>20</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7446,25 +7463,25 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>385</v>
+        <v>302</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -7475,10 +7492,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7486,7 +7503,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>86</v>
@@ -7501,13 +7518,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>392</v>
+        <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7534,13 +7551,13 @@
         <v>20</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>20</v>
+        <v>393</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>20</v>
@@ -7558,10 +7575,10 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>86</v>
@@ -7576,7 +7593,7 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -7587,10 +7604,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7598,10 +7615,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>20</v>
@@ -7613,20 +7630,16 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>401</v>
-      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>20</v>
       </c>
@@ -7674,13 +7687,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
@@ -7692,7 +7705,7 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -7703,10 +7716,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7729,18 +7742,20 @@
         <v>20</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -7764,13 +7779,13 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>406</v>
+        <v>20</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>407</v>
+        <v>20</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -7788,7 +7803,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7806,17 +7821,131 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AM54" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN54" t="s" s="2">
+      <c r="M55" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN54">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7826,7 +7955,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI53">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-tub-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-tub-req-2:The performedDateTime element is required and must be provided. {performedDateTime.exists() and performedDateTime.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-tub-req-1:The subject element is required and must be provided. {subject.exists()}o-tub-req-2:The performedDateTime element is required and must be provided. {performedDateTime.exists() and performedDateTime.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tumor-board-review.xlsx
+++ b/StructureDefinition-onconova-tumor-board-review.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
